--- a/data-raw/mousedata.xlsx
+++ b/data-raw/mousedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvlo\Documents\cheeseTrap\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50821B6-8273-46C2-9A87-93E921841217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35EFAC2-2755-4CDD-B425-A9431B824B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{035E1133-70D9-1445-8369-437F5BC38AF0}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BFBD9B-FF6D-6545-89C6-536070BB4114}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="127" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
